--- a/biology/Zoologie/Eurytides_orabilis/Eurytides_orabilis.xlsx
+++ b/biology/Zoologie/Eurytides_orabilis/Eurytides_orabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides orabilis est un insecte lépidoptère de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Eurytides.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurytides orabilis a été décrit par Arthur Gardiner Butler, en 1872 sous le nom initial de Papilio orabilis[1].
-Sous-espèces
-Eurytides orabilis orabilis
-Eurytides orabilis isocharis (Rothschild et Jordan, 1906)[1].
-Nom vernaculaire
-Eurytides orabilis se nomme Thick-edged Kite-Swallowtail en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides orabilis a été décrit par Arthur Gardiner Butler, en 1872 sous le nom initial de Papilio orabilis.
 </t>
         </is>
       </c>
@@ -544,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurytides orabilis est un papillon au corps noir, d'une envergure de 46 mm à 56 mm, aux ailes antérieures à bord externe concave et ailes postérieures à très longue queue[3]. Le dessus est de couleur blanche avec aux ailes antérieures l'apex et une large bordure marginale marron et deux courtes bandes marron à partir du bord costal. Les postérieures présentent dans la bordure marron des lunules bleues et une tache anale rouge.
-Le revers est semblable avec en plus aux postérieures une bordure marron du bord interne.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurytides orabilis orabilis
+Eurytides orabilis isocharis (Rothschild et Jordan, 1906).</t>
         </is>
       </c>
     </row>
@@ -576,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante hôte
-La plante hôte de sa chenille est Guatteria tonduzii[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides orabilis se nomme Thick-edged Kite-Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -608,17 +627,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides orabilis est un papillon au corps noir, d'une envergure de 46 mm à 56 mm, aux ailes antérieures à bord externe concave et ailes postérieures à très longue queue. Le dessus est de couleur blanche avec aux ailes antérieures l'apex et une large bordure marginale marron et deux courtes bandes marron à partir du bord costal. Les postérieures présentent dans la bordure marron des lunules bleues et une tache anale rouge.
+Le revers est semblable avec en plus aux postérieures une bordure marron du bord interne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurytides_orabilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_orabilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Guatteria tonduzii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurytides_orabilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_orabilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurytides orabilis est présent au Costa Rica, au Guatemala, à Panama, dans l'ouest de la Colombie et de l'Équateur[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides orabilis est présent au Costa Rica, au Guatemala, à Panama, dans l'ouest de la Colombie et de l'Équateur.
 Sur les autres projets Wikimedia :
 Eurytides orabilis, sur Wikimedia CommonsEurytides orabilis, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurytides_orabilis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_orabilis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
